--- a/graph_expr/output/goodcol_outputs- am_lb3_lb3_acyc_c_q5/am_lb3_lb3_acyc_c_q5__ansgrBYVIEWS_newcols.xlsx
+++ b/graph_expr/output/goodcol_outputs- am_lb3_lb3_acyc_c_q5/am_lb3_lb3_acyc_c_q5__ansgrBYVIEWS_newcols.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t xml:space="preserve">*****************************************************</t>
   </si>
@@ -194,19 +194,25 @@
     <t xml:space="preserve">IESIM</t>
   </si>
   <si>
+    <t xml:space="preserve">just simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEFLT</t>
+  </si>
+  <si>
     <t xml:space="preserve">prefilter only?</t>
   </si>
   <si>
-    <t xml:space="preserve">IEFLT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no filter</t>
-  </si>
-  <si>
     <t xml:space="preserve">IEFLTSIM</t>
   </si>
   <si>
     <t xml:space="preserve">all filters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pretime may only measure simulation time?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inconsistency b/w prefilter only runs</t>
   </si>
 </sst>
 </file>
@@ -450,7 +456,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.01953125" defaultRowHeight="13.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.03125" defaultRowHeight="13.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -795,17 +801,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.01171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="32.27"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="2" width="10"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="2" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="13.16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="2" width="10"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1107,6 +1116,16 @@
       </c>
       <c r="J11" s="10" t="n">
         <v>446934</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
